--- a/biology/Microbiologie/Vibrio_vulnificus/Vibrio_vulnificus.xlsx
+++ b/biology/Microbiologie/Vibrio_vulnificus/Vibrio_vulnificus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vibrio vulnificus est une espèce de bactéries Gram-négative, en forme de bâtonnet appartenant au genre Vibrio. Présente dans les environnements marins comme les estuaires ou les eaux côtières, V. vulnificus est proche de V. cholerae, l'agent responsable du choléra[3],[4]. Les infections causées par V. vulnificus conduisent à une cellulite ou une septicémie[5]. Elle a été isolée pour la première fois en 1976[6]. Vibrio Vulnificus appartient aux espèces qui peuvent être impliquées dans la fasciite nécrosante. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vibrio vulnificus est une espèce de bactéries Gram-négative, en forme de bâtonnet appartenant au genre Vibrio. Présente dans les environnements marins comme les estuaires ou les eaux côtières, V. vulnificus est proche de V. cholerae, l'agent responsable du choléra,. Les infections causées par V. vulnificus conduisent à une cellulite ou une septicémie. Elle a été isolée pour la première fois en 1976. Vibrio Vulnificus appartient aux espèces qui peuvent être impliquées dans la fasciite nécrosante. 
 </t>
         </is>
       </c>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie de l'épithète de l'espèce Vibrio vulnificus est la suivante : vul.ni.fi.cus L. masc. adj. vulnificus, qui provoque ou inflige des blessures[7].
-Classification Phylogénique</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète de l'espèce Vibrio vulnificus est la suivante : vul.ni.fi.cus L. masc. adj. vulnificus, qui provoque ou inflige des blessures.
+</t>
         </is>
       </c>
     </row>
@@ -543,9 +560,11 @@
           <t>Souches de V. vulnificus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le NCBI  (27 octobre 2013)[8] recense plusieurs souches décrites dont la souche type NBRC 15645 (ou ATCC 27562). Parmi ces souches, on trouve les souches listées ci-après : 06-2450, B2, CladeA-yb158, CMCP6, E64MW, Env1, JY1305, JY1701, MO6-24/O, VV, VVyb1(BT3) et YJ016.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le NCBI  (27 octobre 2013) recense plusieurs souches décrites dont la souche type NBRC 15645 (ou ATCC 27562). Parmi ces souches, on trouve les souches listées ci-après : 06-2450, B2, CladeA-yb158, CMCP6, E64MW, Env1, JY1305, JY1701, MO6-24/O, VV, VVyb1(BT3) et YJ016.
 </t>
         </is>
       </c>
